--- a/DataForTest/AnujaDDT.xlsx
+++ b/DataForTest/AnujaDDT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ganesh\eclipse-workspace\AmazonProject1\DataForTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{202DAA55-35DA-45E9-8258-6D97F14031F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11A8A415-0E8D-4F44-B6C4-0D5BEDF33D6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -399,7 +399,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/DataForTest/AnujaDDT.xlsx
+++ b/DataForTest/AnujaDDT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ganesh\eclipse-workspace\AmazonProject1\DataForTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11A8A415-0E8D-4F44-B6C4-0D5BEDF33D6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6B58415-C43C-4640-90FA-47381D660805}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9336" yWindow="996" windowWidth="13668" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginDetails" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
     <t>Name</t>
   </si>
@@ -49,6 +49,15 @@
   </si>
   <si>
     <t>Anuja Gaikwad</t>
+  </si>
+  <si>
+    <t>valid login</t>
+  </si>
+  <si>
+    <t>invalid login</t>
+  </si>
+  <si>
+    <t>Registration</t>
   </si>
 </sst>
 </file>
@@ -108,13 +117,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -396,113 +406,122 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" zoomScale="104" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="3"/>
-    <col min="2" max="2" width="14.5546875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="25.5546875" style="3" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="2" width="27.44140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="14.5546875" style="5" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="2"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="D2" s="2"/>
+      <c r="E2" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="2">
+      <c r="D4" s="6">
         <v>9096439775</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
+      <c r="B5" s="1"/>
       <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
+      <c r="B6" s="1"/>
       <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
-      <c r="B7" s="2"/>
+      <c r="B7" s="1"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
-      <c r="B8" s="2"/>
+      <c r="B8" s="1"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
-      <c r="B9" s="2"/>
+      <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
-      <c r="B10" s="2"/>
+      <c r="B10" s="1"/>
       <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+      <c r="D10" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" xr:uid="{2A58A80C-66CF-485B-AF98-DB756B3055B0}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{E45AB26E-3C10-4B8A-B49D-1F57136A05EC}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{56C5C962-0EE0-427C-BCAA-F16B79F8D8F6}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{2A58A80C-66CF-485B-AF98-DB756B3055B0}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{E45AB26E-3C10-4B8A-B49D-1F57136A05EC}"/>
+    <hyperlink ref="A3" r:id="rId3" xr:uid="{56C5C962-0EE0-427C-BCAA-F16B79F8D8F6}"/>
+    <hyperlink ref="A4" r:id="rId4" xr:uid="{C4600906-15BC-48F8-8BB3-B3108CB04E0B}"/>
+    <hyperlink ref="B4" r:id="rId5" xr:uid="{31DBEC0D-15ED-4649-8BA2-EFAD0982A810}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>